--- a/hvernigtaemistc16.xlsx
+++ b/hvernigtaemistc16.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenagunnarsdottir/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E99F9A-4C96-244F-98CE-92FEEBF8A3F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFEFA4F1-7146-BC44-AFDE-973E6F3020BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="afylling16" sheetId="1" r:id="rId1"/>
+    <sheet name="hvernigtaemistc16" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Timeslot</t>
   </si>
@@ -42,7 +48,13 @@
     <t>Itemcode</t>
   </si>
   <si>
+    <t>Dagur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hversu mörg vörunúmer endast í </t>
+  </si>
+  <si>
+    <t>Endist lengur en 6 vikur</t>
   </si>
   <si>
     <t>Endist í minna en viku</t>
@@ -63,17 +75,14 @@
     <t>Endist í minna en 6 vikur</t>
   </si>
   <si>
-    <t>Endist lengur en 6 vikur</t>
-  </si>
-  <si>
-    <t>fjöldi vörunúmera (styrkt vín)</t>
+    <t xml:space="preserve">fjöldi vörunúmera </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,316 +90,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -398,207 +107,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -631,11 +151,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -645,12 +165,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ókryddað brennivín</a:t>
+              <a:t>Ókryddað brennivín og</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> og vodka</a:t>
+              <a:t> vodka</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -667,11 +188,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -695,17 +216,78 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>afylling16!$G$2:$G$8</c:f>
+              <c:f>hvernigtaemistc16!$G$2:$G$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -734,7 +316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>afylling16!$H$2:$H$8</c:f>
+              <c:f>hvernigtaemistc16!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -764,24 +346,25 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99EC-6A42-A709-FF445F6A5E64}"/>
+              <c16:uniqueId val="{00000000-1764-024B-93C7-161B752CBA1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="210657952"/>
-        <c:axId val="128854576"/>
+        <c:gapWidth val="65"/>
+        <c:axId val="-2074479088"/>
+        <c:axId val="-2080139072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210657952"/>
+        <c:axId val="-2074479088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,11 +376,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -809,11 +392,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -824,7 +407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128854576"/>
+        <c:crossAx val="-2080139072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -832,7 +415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128854576"/>
+        <c:axId val="-2080139072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,12 +424,24 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -870,9 +465,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -883,7 +478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210657952"/>
+        <c:crossAx val="-2074479088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,24 +492,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -980,171 +584,207 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1160,21 +800,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1184,23 +822,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1209,17 +846,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1228,12 +865,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1247,30 +884,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1280,17 +923,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1299,17 +953,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1318,17 +972,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1337,27 +990,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1365,11 +1026,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1377,14 +1049,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1396,12 +1068,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1410,14 +1082,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1426,9 +1097,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1438,20 +1109,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1460,11 +1130,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1472,14 +1147,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1489,22 +1158,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1263650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9983D9F3-FDB6-664E-920E-07657D59B3DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1211,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1554,7 +1223,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1571,9 +1240,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1601,31 +1270,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1653,23 +1305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1825,12 +1460,15 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1846,11 +1484,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1866,8 +1507,12 @@
       <c r="D2">
         <v>16</v>
       </c>
+      <c r="E2" t="str">
+        <f>IF(A2&lt;8,"1. Laugardagur",IF(A2&lt;15,"2. Mánudagur",IF(A2&lt;22,"3. Þriðjudagur",IF(A2&lt;29,"4. Miðvikudagur",IF(A2&lt;36,"5. Fimmtudagur",IF(A2&lt;43,"6. Föstudagur",IF(A2&lt;50,"7. Laugardagur",IF(A2&lt;57,"8. Mánudagur",IF(A2&lt;64,"9. Þriðjudagur",IF(A2&lt;71,"10. Miðvikudagur",IF(A2&lt;78,"11. Fimmtudagur",IF(A2&lt;85,"12. Föstudagur",IF(A2&lt;92,"13. Laugardagur",IF(A2&lt;99,"14. Mánudagur",IF(A2&lt;106,"15. Þriðjudagur",IF(A2&lt;113,"16. Miðvikudagur",IF(A2&lt;120,"17. Fimmtudagur",IF(A2&lt;127,"18. Föstudagur",IF(A2&lt;134,"19. Laugardagur",IF(A2&lt;141,"20. Mánudagur",IF(A2&lt;148,"21. Þriðjudagur",IF(A2&lt;155,"22. Miðvikudagur",IF(A2&lt;162,"23. Fimmtudagur",IF(A2&lt;169,"24. Föstudagur",IF(A2&lt;176,"25. Laugardagur",IF(A2&lt;183,"26. Mánudagur",IF(A2&lt;190,"27. Þriðjudagur",IF(A2&lt;197,"28. Miðvikudagur",IF(A2&lt;204,"29. Fimmtudagur",IF(A2&lt;211,"30. Föstudagur",IF(A2&lt;218,"31. Laugardagur",IF(A2&lt;225,"32. Mánudagur",IF(A2&lt;232,"33. Þriðjudagur",IF(A2&lt;239,"34. Miðvikudagur",IF(A2&lt;246,"35. Fimmtudagur",IF(A2&lt;253,"36. Föstudagur",IF(A2&lt;260,"37. Laugardagur","0")))))))))))))))))))))))))))))))))))))</f>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -1886,8 +1531,12 @@
       <c r="D3">
         <v>16</v>
       </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(A3&lt;8,"1. Laugardagur",IF(A3&lt;15,"2. Mánudagur",IF(A3&lt;22,"3. Þriðjudagur",IF(A3&lt;29,"4. Miðvikudagur",IF(A3&lt;36,"5. Fimmtudagur",IF(A3&lt;43,"6. Föstudagur",IF(A3&lt;50,"7. Laugardagur",IF(A3&lt;57,"8. Mánudagur",IF(A3&lt;64,"9. Þriðjudagur",IF(A3&lt;71,"10. Miðvikudagur",IF(A3&lt;78,"11. Fimmtudagur",IF(A3&lt;85,"12. Föstudagur",IF(A3&lt;92,"13. Laugardagur",IF(A3&lt;99,"14. Mánudagur",IF(A3&lt;106,"15. Þriðjudagur",IF(A3&lt;113,"16. Miðvikudagur",IF(A3&lt;120,"17. Fimmtudagur",IF(A3&lt;127,"18. Föstudagur",IF(A3&lt;134,"19. Laugardagur",IF(A3&lt;141,"20. Mánudagur",IF(A3&lt;148,"21. Þriðjudagur",IF(A3&lt;155,"22. Miðvikudagur",IF(A3&lt;162,"23. Fimmtudagur",IF(A3&lt;169,"24. Föstudagur",IF(A3&lt;176,"25. Laugardagur",IF(A3&lt;183,"26. Mánudagur",IF(A3&lt;190,"27. Þriðjudagur",IF(A3&lt;197,"28. Miðvikudagur",IF(A3&lt;204,"29. Fimmtudagur",IF(A3&lt;211,"30. Föstudagur",IF(A3&lt;218,"31. Laugardagur",IF(A3&lt;225,"32. Mánudagur",IF(A3&lt;232,"33. Þriðjudagur",IF(A3&lt;239,"34. Miðvikudagur",IF(A3&lt;246,"35. Fimmtudagur",IF(A3&lt;253,"36. Föstudagur",IF(A3&lt;260,"37. Laugardagur","0")))))))))))))))))))))))))))))))))))))</f>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -1906,8 +1555,12 @@
       <c r="D4">
         <v>16</v>
       </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -1926,8 +1579,12 @@
       <c r="D5">
         <v>16</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1946,8 +1603,12 @@
       <c r="D6">
         <v>16</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1966,8 +1627,12 @@
       <c r="D7">
         <v>16</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1986,8 +1651,12 @@
       <c r="D8">
         <v>16</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -2006,8 +1675,12 @@
       <c r="D9">
         <v>16</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H8)</f>
@@ -2027,6 +1700,10 @@
       <c r="D10">
         <v>16</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
@@ -2041,6 +1718,10 @@
       <c r="D11">
         <v>16</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -2055,6 +1736,10 @@
       <c r="D12">
         <v>16</v>
       </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
@@ -2069,6 +1754,10 @@
       <c r="D13">
         <v>16</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
@@ -2083,6 +1772,10 @@
       <c r="D14">
         <v>16</v>
       </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>4. Miðvikudagur</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
@@ -2097,6 +1790,10 @@
       <c r="D15">
         <v>16</v>
       </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
@@ -2111,8 +1808,12 @@
       <c r="D16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>36</v>
       </c>
@@ -2125,8 +1826,12 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>36</v>
       </c>
@@ -2139,8 +1844,12 @@
       <c r="D18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2153,8 +1862,12 @@
       <c r="D19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>36</v>
       </c>
@@ -2167,8 +1880,12 @@
       <c r="D20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>36</v>
       </c>
@@ -2181,8 +1898,12 @@
       <c r="D21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>36</v>
       </c>
@@ -2195,8 +1916,12 @@
       <c r="D22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>6. Föstudagur</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>43</v>
       </c>
@@ -2209,8 +1934,12 @@
       <c r="D23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>43</v>
       </c>
@@ -2223,8 +1952,12 @@
       <c r="D24">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>43</v>
       </c>
@@ -2237,8 +1970,12 @@
       <c r="D25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>43</v>
       </c>
@@ -2251,8 +1988,12 @@
       <c r="D26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>43</v>
       </c>
@@ -2265,8 +2006,12 @@
       <c r="D27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>43</v>
       </c>
@@ -2279,8 +2024,12 @@
       <c r="D28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>43</v>
       </c>
@@ -2293,8 +2042,12 @@
       <c r="D29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>43</v>
       </c>
@@ -2307,8 +2060,12 @@
       <c r="D30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>43</v>
       </c>
@@ -2321,8 +2078,12 @@
       <c r="D31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>43</v>
       </c>
@@ -2335,8 +2096,12 @@
       <c r="D32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>43</v>
       </c>
@@ -2349,8 +2114,12 @@
       <c r="D33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>43</v>
       </c>
@@ -2363,8 +2132,12 @@
       <c r="D34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>43</v>
       </c>
@@ -2377,8 +2150,12 @@
       <c r="D35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Laugardagur</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>50</v>
       </c>
@@ -2391,8 +2168,12 @@
       <c r="D36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>50</v>
       </c>
@@ -2405,8 +2186,12 @@
       <c r="D37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>50</v>
       </c>
@@ -2419,8 +2204,12 @@
       <c r="D38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>50</v>
       </c>
@@ -2433,8 +2222,12 @@
       <c r="D39">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>50</v>
       </c>
@@ -2447,8 +2240,12 @@
       <c r="D40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>50</v>
       </c>
@@ -2461,8 +2258,12 @@
       <c r="D41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>50</v>
       </c>
@@ -2475,8 +2276,12 @@
       <c r="D42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2489,8 +2294,12 @@
       <c r="D43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>50</v>
       </c>
@@ -2503,8 +2312,12 @@
       <c r="D44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>50</v>
       </c>
@@ -2517,8 +2330,12 @@
       <c r="D45">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>50</v>
       </c>
@@ -2531,8 +2348,12 @@
       <c r="D46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>50</v>
       </c>
@@ -2545,8 +2366,12 @@
       <c r="D47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2559,8 +2384,12 @@
       <c r="D48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2573,8 +2402,12 @@
       <c r="D49">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>8. Mánudagur</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>71</v>
       </c>
@@ -2587,8 +2420,12 @@
       <c r="D50">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>71</v>
       </c>
@@ -2601,8 +2438,12 @@
       <c r="D51">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>71</v>
       </c>
@@ -2615,8 +2456,12 @@
       <c r="D52">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>71</v>
       </c>
@@ -2629,8 +2474,12 @@
       <c r="D53">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>71</v>
       </c>
@@ -2643,8 +2492,12 @@
       <c r="D54">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>71</v>
       </c>
@@ -2657,8 +2510,12 @@
       <c r="D55">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>71</v>
       </c>
@@ -2671,8 +2528,12 @@
       <c r="D56">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>71</v>
       </c>
@@ -2685,8 +2546,12 @@
       <c r="D57">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>71</v>
       </c>
@@ -2699,8 +2564,12 @@
       <c r="D58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>71</v>
       </c>
@@ -2713,8 +2582,12 @@
       <c r="D59">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>71</v>
       </c>
@@ -2727,8 +2600,12 @@
       <c r="D60">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>71</v>
       </c>
@@ -2741,8 +2618,12 @@
       <c r="D61">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>71</v>
       </c>
@@ -2755,8 +2636,12 @@
       <c r="D62">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>71</v>
       </c>
@@ -2769,8 +2654,12 @@
       <c r="D63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>71</v>
       </c>
@@ -2783,8 +2672,12 @@
       <c r="D64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>71</v>
       </c>
@@ -2797,8 +2690,12 @@
       <c r="D65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Fimmtudagur</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>85</v>
       </c>
@@ -2811,8 +2708,12 @@
       <c r="D66">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>85</v>
       </c>
@@ -2825,8 +2726,12 @@
       <c r="D67">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="1">IF(A67&lt;8,"1. Laugardagur",IF(A67&lt;15,"2. Mánudagur",IF(A67&lt;22,"3. Þriðjudagur",IF(A67&lt;29,"4. Miðvikudagur",IF(A67&lt;36,"5. Fimmtudagur",IF(A67&lt;43,"6. Föstudagur",IF(A67&lt;50,"7. Laugardagur",IF(A67&lt;57,"8. Mánudagur",IF(A67&lt;64,"9. Þriðjudagur",IF(A67&lt;71,"10. Miðvikudagur",IF(A67&lt;78,"11. Fimmtudagur",IF(A67&lt;85,"12. Föstudagur",IF(A67&lt;92,"13. Laugardagur",IF(A67&lt;99,"14. Mánudagur",IF(A67&lt;106,"15. Þriðjudagur",IF(A67&lt;113,"16. Miðvikudagur",IF(A67&lt;120,"17. Fimmtudagur",IF(A67&lt;127,"18. Föstudagur",IF(A67&lt;134,"19. Laugardagur",IF(A67&lt;141,"20. Mánudagur",IF(A67&lt;148,"21. Þriðjudagur",IF(A67&lt;155,"22. Miðvikudagur",IF(A67&lt;162,"23. Fimmtudagur",IF(A67&lt;169,"24. Föstudagur",IF(A67&lt;176,"25. Laugardagur",IF(A67&lt;183,"26. Mánudagur",IF(A67&lt;190,"27. Þriðjudagur",IF(A67&lt;197,"28. Miðvikudagur",IF(A67&lt;204,"29. Fimmtudagur",IF(A67&lt;211,"30. Föstudagur",IF(A67&lt;218,"31. Laugardagur",IF(A67&lt;225,"32. Mánudagur",IF(A67&lt;232,"33. Þriðjudagur",IF(A67&lt;239,"34. Miðvikudagur",IF(A67&lt;246,"35. Fimmtudagur",IF(A67&lt;253,"36. Föstudagur",IF(A67&lt;260,"37. Laugardagur","0")))))))))))))))))))))))))))))))))))))</f>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>85</v>
       </c>
@@ -2839,8 +2744,12 @@
       <c r="D68">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>85</v>
       </c>
@@ -2853,8 +2762,12 @@
       <c r="D69">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>85</v>
       </c>
@@ -2867,8 +2780,12 @@
       <c r="D70">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>85</v>
       </c>
@@ -2881,8 +2798,12 @@
       <c r="D71">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>85</v>
       </c>
@@ -2895,8 +2816,12 @@
       <c r="D72">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>85</v>
       </c>
@@ -2909,8 +2834,12 @@
       <c r="D73">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>85</v>
       </c>
@@ -2923,8 +2852,12 @@
       <c r="D74">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>85</v>
       </c>
@@ -2937,8 +2870,12 @@
       <c r="D75">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>85</v>
       </c>
@@ -2951,8 +2888,12 @@
       <c r="D76">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>85</v>
       </c>
@@ -2965,8 +2906,12 @@
       <c r="D77">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>85</v>
       </c>
@@ -2979,8 +2924,12 @@
       <c r="D78">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>85</v>
       </c>
@@ -2993,8 +2942,12 @@
       <c r="D79">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>85</v>
       </c>
@@ -3007,8 +2960,12 @@
       <c r="D80">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>85</v>
       </c>
@@ -3021,8 +2978,12 @@
       <c r="D81">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>85</v>
       </c>
@@ -3035,8 +2996,12 @@
       <c r="D82">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>85</v>
       </c>
@@ -3049,8 +3014,12 @@
       <c r="D83">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>85</v>
       </c>
@@ -3063,8 +3032,12 @@
       <c r="D84">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>85</v>
       </c>
@@ -3077,8 +3050,12 @@
       <c r="D85">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3091,8 +3068,12 @@
       <c r="D86">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>13. Laugardagur</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>99</v>
       </c>
@@ -3105,8 +3086,12 @@
       <c r="D87">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>99</v>
       </c>
@@ -3119,8 +3104,12 @@
       <c r="D88">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>99</v>
       </c>
@@ -3133,8 +3122,12 @@
       <c r="D89">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>99</v>
       </c>
@@ -3147,8 +3140,12 @@
       <c r="D90">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>99</v>
       </c>
@@ -3161,8 +3158,12 @@
       <c r="D91">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>99</v>
       </c>
@@ -3175,8 +3176,12 @@
       <c r="D92">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>99</v>
       </c>
@@ -3189,8 +3194,12 @@
       <c r="D93">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>99</v>
       </c>
@@ -3203,8 +3212,12 @@
       <c r="D94">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>99</v>
       </c>
@@ -3217,8 +3230,12 @@
       <c r="D95">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>99</v>
       </c>
@@ -3231,8 +3248,12 @@
       <c r="D96">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>99</v>
       </c>
@@ -3245,8 +3266,12 @@
       <c r="D97">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>99</v>
       </c>
@@ -3259,8 +3284,12 @@
       <c r="D98">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>99</v>
       </c>
@@ -3273,8 +3302,12 @@
       <c r="D99">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3287,8 +3320,12 @@
       <c r="D100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3301,8 +3338,12 @@
       <c r="D101">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>99</v>
       </c>
@@ -3315,8 +3356,12 @@
       <c r="D102">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>99</v>
       </c>
@@ -3329,8 +3374,12 @@
       <c r="D103">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>99</v>
       </c>
@@ -3343,8 +3392,12 @@
       <c r="D104">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>99</v>
       </c>
@@ -3357,8 +3410,12 @@
       <c r="D105">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>99</v>
       </c>
@@ -3371,8 +3428,12 @@
       <c r="D106">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>99</v>
       </c>
@@ -3385,8 +3446,12 @@
       <c r="D107">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>99</v>
       </c>
@@ -3399,8 +3464,12 @@
       <c r="D108">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>99</v>
       </c>
@@ -3413,8 +3482,12 @@
       <c r="D109">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>99</v>
       </c>
@@ -3427,8 +3500,12 @@
       <c r="D110">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>15. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>120</v>
       </c>
@@ -3441,8 +3518,12 @@
       <c r="D111">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>120</v>
       </c>
@@ -3455,8 +3536,12 @@
       <c r="D112">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>120</v>
       </c>
@@ -3469,8 +3554,12 @@
       <c r="D113">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>120</v>
       </c>
@@ -3483,8 +3572,12 @@
       <c r="D114">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>120</v>
       </c>
@@ -3497,8 +3590,12 @@
       <c r="D115">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>120</v>
       </c>
@@ -3511,8 +3608,12 @@
       <c r="D116">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>120</v>
       </c>
@@ -3525,8 +3626,12 @@
       <c r="D117">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>120</v>
       </c>
@@ -3539,8 +3644,12 @@
       <c r="D118">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>120</v>
       </c>
@@ -3553,8 +3662,12 @@
       <c r="D119">
         <v>16</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>120</v>
       </c>
@@ -3567,8 +3680,12 @@
       <c r="D120">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3581,8 +3698,12 @@
       <c r="D121">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3595,8 +3716,12 @@
       <c r="D122">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>120</v>
       </c>
@@ -3609,8 +3734,12 @@
       <c r="D123">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>120</v>
       </c>
@@ -3623,8 +3752,12 @@
       <c r="D124">
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>120</v>
       </c>
@@ -3637,8 +3770,12 @@
       <c r="D125">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>120</v>
       </c>
@@ -3651,8 +3788,12 @@
       <c r="D126">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>18. Föstudagur</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>127</v>
       </c>
@@ -3665,8 +3806,12 @@
       <c r="D127">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3679,8 +3824,12 @@
       <c r="D128">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3693,8 +3842,12 @@
       <c r="D129">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>127</v>
       </c>
@@ -3707,8 +3860,12 @@
       <c r="D130">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>127</v>
       </c>
@@ -3721,8 +3878,12 @@
       <c r="D131">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E194" si="2">IF(A131&lt;8,"1. Laugardagur",IF(A131&lt;15,"2. Mánudagur",IF(A131&lt;22,"3. Þriðjudagur",IF(A131&lt;29,"4. Miðvikudagur",IF(A131&lt;36,"5. Fimmtudagur",IF(A131&lt;43,"6. Föstudagur",IF(A131&lt;50,"7. Laugardagur",IF(A131&lt;57,"8. Mánudagur",IF(A131&lt;64,"9. Þriðjudagur",IF(A131&lt;71,"10. Miðvikudagur",IF(A131&lt;78,"11. Fimmtudagur",IF(A131&lt;85,"12. Föstudagur",IF(A131&lt;92,"13. Laugardagur",IF(A131&lt;99,"14. Mánudagur",IF(A131&lt;106,"15. Þriðjudagur",IF(A131&lt;113,"16. Miðvikudagur",IF(A131&lt;120,"17. Fimmtudagur",IF(A131&lt;127,"18. Föstudagur",IF(A131&lt;134,"19. Laugardagur",IF(A131&lt;141,"20. Mánudagur",IF(A131&lt;148,"21. Þriðjudagur",IF(A131&lt;155,"22. Miðvikudagur",IF(A131&lt;162,"23. Fimmtudagur",IF(A131&lt;169,"24. Föstudagur",IF(A131&lt;176,"25. Laugardagur",IF(A131&lt;183,"26. Mánudagur",IF(A131&lt;190,"27. Þriðjudagur",IF(A131&lt;197,"28. Miðvikudagur",IF(A131&lt;204,"29. Fimmtudagur",IF(A131&lt;211,"30. Föstudagur",IF(A131&lt;218,"31. Laugardagur",IF(A131&lt;225,"32. Mánudagur",IF(A131&lt;232,"33. Þriðjudagur",IF(A131&lt;239,"34. Miðvikudagur",IF(A131&lt;246,"35. Fimmtudagur",IF(A131&lt;253,"36. Föstudagur",IF(A131&lt;260,"37. Laugardagur","0")))))))))))))))))))))))))))))))))))))</f>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>127</v>
       </c>
@@ -3735,8 +3896,12 @@
       <c r="D132">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>127</v>
       </c>
@@ -3749,8 +3914,12 @@
       <c r="D133">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>127</v>
       </c>
@@ -3763,8 +3932,12 @@
       <c r="D134">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>127</v>
       </c>
@@ -3777,8 +3950,12 @@
       <c r="D135">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>127</v>
       </c>
@@ -3791,8 +3968,12 @@
       <c r="D136">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>127</v>
       </c>
@@ -3805,8 +3986,12 @@
       <c r="D137">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>127</v>
       </c>
@@ -3819,8 +4004,12 @@
       <c r="D138">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>19. Laugardagur</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>148</v>
       </c>
@@ -3833,8 +4022,12 @@
       <c r="D139">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>148</v>
       </c>
@@ -3847,8 +4040,12 @@
       <c r="D140">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>148</v>
       </c>
@@ -3861,8 +4058,12 @@
       <c r="D141">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>148</v>
       </c>
@@ -3875,8 +4076,12 @@
       <c r="D142">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>148</v>
       </c>
@@ -3889,8 +4094,12 @@
       <c r="D143">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>148</v>
       </c>
@@ -3903,8 +4112,12 @@
       <c r="D144">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>148</v>
       </c>
@@ -3917,8 +4130,12 @@
       <c r="D145">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>148</v>
       </c>
@@ -3931,8 +4148,12 @@
       <c r="D146">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>148</v>
       </c>
@@ -3945,8 +4166,12 @@
       <c r="D147">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>148</v>
       </c>
@@ -3959,8 +4184,12 @@
       <c r="D148">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3973,8 +4202,12 @@
       <c r="D149">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>148</v>
       </c>
@@ -3987,8 +4220,12 @@
       <c r="D150">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>148</v>
       </c>
@@ -4001,8 +4238,12 @@
       <c r="D151">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>148</v>
       </c>
@@ -4015,8 +4256,12 @@
       <c r="D152">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>148</v>
       </c>
@@ -4029,8 +4274,12 @@
       <c r="D153">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>148</v>
       </c>
@@ -4043,8 +4292,12 @@
       <c r="D154">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>148</v>
       </c>
@@ -4057,8 +4310,12 @@
       <c r="D155">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>148</v>
       </c>
@@ -4071,8 +4328,12 @@
       <c r="D156">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>148</v>
       </c>
@@ -4085,8 +4346,12 @@
       <c r="D157">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>148</v>
       </c>
@@ -4099,8 +4364,12 @@
       <c r="D158">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>148</v>
       </c>
@@ -4113,8 +4382,12 @@
       <c r="D159">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>148</v>
       </c>
@@ -4127,8 +4400,12 @@
       <c r="D160">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>148</v>
       </c>
@@ -4141,8 +4418,12 @@
       <c r="D161">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>148</v>
       </c>
@@ -4155,8 +4436,12 @@
       <c r="D162">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>148</v>
       </c>
@@ -4169,8 +4454,12 @@
       <c r="D163">
         <v>16</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>148</v>
       </c>
@@ -4183,8 +4472,12 @@
       <c r="D164">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>22. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>162</v>
       </c>
@@ -4197,8 +4490,12 @@
       <c r="D165">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>162</v>
       </c>
@@ -4211,8 +4508,12 @@
       <c r="D166">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>162</v>
       </c>
@@ -4225,8 +4526,12 @@
       <c r="D167">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>162</v>
       </c>
@@ -4239,8 +4544,12 @@
       <c r="D168">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>162</v>
       </c>
@@ -4253,8 +4562,12 @@
       <c r="D169">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>162</v>
       </c>
@@ -4267,8 +4580,12 @@
       <c r="D170">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>162</v>
       </c>
@@ -4281,8 +4598,12 @@
       <c r="D171">
         <v>16</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>162</v>
       </c>
@@ -4295,8 +4616,12 @@
       <c r="D172">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>162</v>
       </c>
@@ -4309,8 +4634,12 @@
       <c r="D173">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>162</v>
       </c>
@@ -4323,8 +4652,12 @@
       <c r="D174">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>162</v>
       </c>
@@ -4337,8 +4670,12 @@
       <c r="D175">
         <v>16</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>162</v>
       </c>
@@ -4351,8 +4688,12 @@
       <c r="D176">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>162</v>
       </c>
@@ -4365,8 +4706,12 @@
       <c r="D177">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>162</v>
       </c>
@@ -4379,8 +4724,12 @@
       <c r="D178">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>162</v>
       </c>
@@ -4393,8 +4742,12 @@
       <c r="D179">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>162</v>
       </c>
@@ -4407,8 +4760,12 @@
       <c r="D180">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>162</v>
       </c>
@@ -4421,8 +4778,12 @@
       <c r="D181">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>162</v>
       </c>
@@ -4435,8 +4796,12 @@
       <c r="D182">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>162</v>
       </c>
@@ -4449,8 +4814,12 @@
       <c r="D183">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>162</v>
       </c>
@@ -4463,8 +4832,12 @@
       <c r="D184">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>162</v>
       </c>
@@ -4477,8 +4850,12 @@
       <c r="D185">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>162</v>
       </c>
@@ -4491,8 +4868,12 @@
       <c r="D186">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>24. Föstudagur</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>183</v>
       </c>
@@ -4505,8 +4886,12 @@
       <c r="D187">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>183</v>
       </c>
@@ -4519,8 +4904,12 @@
       <c r="D188">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>183</v>
       </c>
@@ -4533,8 +4922,12 @@
       <c r="D189">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>183</v>
       </c>
@@ -4547,8 +4940,12 @@
       <c r="D190">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>183</v>
       </c>
@@ -4561,8 +4958,12 @@
       <c r="D191">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>183</v>
       </c>
@@ -4575,8 +4976,12 @@
       <c r="D192">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>183</v>
       </c>
@@ -4589,8 +4994,12 @@
       <c r="D193">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>183</v>
       </c>
@@ -4603,8 +5012,12 @@
       <c r="D194">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="str">
+        <f t="shared" si="2"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>183</v>
       </c>
@@ -4617,8 +5030,12 @@
       <c r="D195">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="str">
+        <f t="shared" ref="E195:E234" si="3">IF(A195&lt;8,"1. Laugardagur",IF(A195&lt;15,"2. Mánudagur",IF(A195&lt;22,"3. Þriðjudagur",IF(A195&lt;29,"4. Miðvikudagur",IF(A195&lt;36,"5. Fimmtudagur",IF(A195&lt;43,"6. Föstudagur",IF(A195&lt;50,"7. Laugardagur",IF(A195&lt;57,"8. Mánudagur",IF(A195&lt;64,"9. Þriðjudagur",IF(A195&lt;71,"10. Miðvikudagur",IF(A195&lt;78,"11. Fimmtudagur",IF(A195&lt;85,"12. Föstudagur",IF(A195&lt;92,"13. Laugardagur",IF(A195&lt;99,"14. Mánudagur",IF(A195&lt;106,"15. Þriðjudagur",IF(A195&lt;113,"16. Miðvikudagur",IF(A195&lt;120,"17. Fimmtudagur",IF(A195&lt;127,"18. Föstudagur",IF(A195&lt;134,"19. Laugardagur",IF(A195&lt;141,"20. Mánudagur",IF(A195&lt;148,"21. Þriðjudagur",IF(A195&lt;155,"22. Miðvikudagur",IF(A195&lt;162,"23. Fimmtudagur",IF(A195&lt;169,"24. Föstudagur",IF(A195&lt;176,"25. Laugardagur",IF(A195&lt;183,"26. Mánudagur",IF(A195&lt;190,"27. Þriðjudagur",IF(A195&lt;197,"28. Miðvikudagur",IF(A195&lt;204,"29. Fimmtudagur",IF(A195&lt;211,"30. Föstudagur",IF(A195&lt;218,"31. Laugardagur",IF(A195&lt;225,"32. Mánudagur",IF(A195&lt;232,"33. Þriðjudagur",IF(A195&lt;239,"34. Miðvikudagur",IF(A195&lt;246,"35. Fimmtudagur",IF(A195&lt;253,"36. Föstudagur",IF(A195&lt;260,"37. Laugardagur","0")))))))))))))))))))))))))))))))))))))</f>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>183</v>
       </c>
@@ -4631,8 +5048,12 @@
       <c r="D196">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="str">
+        <f t="shared" si="3"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>183</v>
       </c>
@@ -4645,8 +5066,12 @@
       <c r="D197">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="str">
+        <f t="shared" si="3"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>183</v>
       </c>
@@ -4659,8 +5084,12 @@
       <c r="D198">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="str">
+        <f t="shared" si="3"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>183</v>
       </c>
@@ -4673,8 +5102,12 @@
       <c r="D199">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="str">
+        <f t="shared" si="3"/>
+        <v>27. Þriðjudagur</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>190</v>
       </c>
@@ -4687,8 +5120,12 @@
       <c r="D200">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>190</v>
       </c>
@@ -4701,8 +5138,12 @@
       <c r="D201">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>190</v>
       </c>
@@ -4715,8 +5156,12 @@
       <c r="D202">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>190</v>
       </c>
@@ -4729,8 +5174,12 @@
       <c r="D203">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>190</v>
       </c>
@@ -4743,8 +5192,12 @@
       <c r="D204">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>190</v>
       </c>
@@ -4757,8 +5210,12 @@
       <c r="D205">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>190</v>
       </c>
@@ -4771,8 +5228,12 @@
       <c r="D206">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>190</v>
       </c>
@@ -4785,8 +5246,12 @@
       <c r="D207">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>190</v>
       </c>
@@ -4799,8 +5264,12 @@
       <c r="D208">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>28. Miðvikudagur</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>211</v>
       </c>
@@ -4813,8 +5282,12 @@
       <c r="D209">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>211</v>
       </c>
@@ -4827,8 +5300,12 @@
       <c r="D210">
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>211</v>
       </c>
@@ -4841,8 +5318,12 @@
       <c r="D211">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4855,8 +5336,12 @@
       <c r="D212">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4869,8 +5354,12 @@
       <c r="D213">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>211</v>
       </c>
@@ -4883,8 +5372,12 @@
       <c r="D214">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>211</v>
       </c>
@@ -4897,8 +5390,12 @@
       <c r="D215">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>211</v>
       </c>
@@ -4911,8 +5408,12 @@
       <c r="D216">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>211</v>
       </c>
@@ -4925,8 +5426,12 @@
       <c r="D217">
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>211</v>
       </c>
@@ -4939,8 +5444,12 @@
       <c r="D218">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>211</v>
       </c>
@@ -4953,8 +5462,12 @@
       <c r="D219">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>31. Laugardagur</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>218</v>
       </c>
@@ -4967,8 +5480,12 @@
       <c r="D220">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>218</v>
       </c>
@@ -4981,8 +5498,12 @@
       <c r="D221">
         <v>16</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>218</v>
       </c>
@@ -4995,8 +5516,12 @@
       <c r="D222">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>218</v>
       </c>
@@ -5009,8 +5534,12 @@
       <c r="D223">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>218</v>
       </c>
@@ -5023,8 +5552,12 @@
       <c r="D224">
         <v>16</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>218</v>
       </c>
@@ -5037,8 +5570,12 @@
       <c r="D225">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>218</v>
       </c>
@@ -5051,8 +5588,12 @@
       <c r="D226">
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>218</v>
       </c>
@@ -5065,8 +5606,12 @@
       <c r="D227">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>218</v>
       </c>
@@ -5079,8 +5624,12 @@
       <c r="D228">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>218</v>
       </c>
@@ -5093,8 +5642,12 @@
       <c r="D229">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>218</v>
       </c>
@@ -5107,8 +5660,12 @@
       <c r="D230">
         <v>16</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>218</v>
       </c>
@@ -5121,8 +5678,12 @@
       <c r="D231">
         <v>16</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>218</v>
       </c>
@@ -5135,8 +5696,12 @@
       <c r="D232">
         <v>16</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>218</v>
       </c>
@@ -5149,8 +5714,12 @@
       <c r="D233">
         <v>16</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>218</v>
       </c>
@@ -5163,9 +5732,13 @@
       <c r="D234">
         <v>16</v>
       </c>
+      <c r="E234" t="str">
+        <f t="shared" si="3"/>
+        <v>32. Mánudagur</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>